--- a/party/upload/Excel模板/空白.xlsx
+++ b/party/upload/Excel模板/空白.xlsx
@@ -2,31 +2,63 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\党建\系统\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>学时数</t>
+  </si>
+  <si>
+    <t>活动名称</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>主/承办党支部</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +81,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,12 +366,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>